--- a/Expr2d/Expr_2.xlsx
+++ b/Expr2d/Expr_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D860891-C39D-AE4B-9ECF-2F22E3283AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A19B843-939E-524C-9763-2C017B8D69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9640" yWindow="1340" windowWidth="28800" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -105,7 +105,10 @@
     <t>1,2,4,8,16</t>
   </si>
   <si>
-    <t>sinc_psi,sinc_psi,sinc_psi</t>
+    <t>2,200,200,200,1</t>
+  </si>
+  <si>
+    <t>phi,phi,phi</t>
   </si>
 </sst>
 </file>
@@ -180,7 +183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -191,6 +194,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,66 +605,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="A3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="b">
+      <c r="D2" s="4" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Expr2d/Expr_2.xlsx
+++ b/Expr2d/Expr_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A19B843-939E-524C-9763-2C017B8D69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9819198-320C-BA4C-B73C-E670128A830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="1340" windowWidth="28800" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8080" yWindow="1340" windowWidth="28800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Model</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Residual</t>
   </si>
   <si>
-    <t>sinc_psi</t>
-  </si>
-  <si>
     <t>xavier_uniform</t>
   </si>
   <si>
@@ -99,23 +96,66 @@
     <t>src_lam/possion_domain.py</t>
   </si>
   <si>
-    <t>Result/Expr2_1</t>
+    <t>2,200,200,200,1</t>
+  </si>
+  <si>
+    <t>phi,phi,phi</t>
+  </si>
+  <si>
+    <t>Result/Expr2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train_Dataset</t>
+  </si>
+  <si>
+    <t>Valid_Dataset</t>
+  </si>
+  <si>
+    <t>Test_Dataset</t>
+  </si>
+  <si>
+    <t>Boundary</t>
+  </si>
+  <si>
+    <t>Domain_Numbers</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Con_record</t>
+  </si>
+  <si>
+    <t>data/possion_2d/holes/train_loader.pt</t>
+  </si>
+  <si>
+    <t>data/possion_2d/holes/val_loader.pt</t>
+  </si>
+  <si>
+    <t>data/possion_2d/holes/test_loader.pt</t>
   </si>
   <si>
     <t>1,2,4,8,16</t>
   </si>
   <si>
-    <t>2,200,200,200,1</t>
-  </si>
-  <si>
-    <t>phi,phi,phi</t>
+    <t>1100,550,550,400</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>0,2000,5000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +184,20 @@
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -178,30 +232,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,15 +580,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,69 +599,111 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="P1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
-        <v>1E-4</v>
+      <c r="B2" s="5">
+        <v>1E-3</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
         <v>7</v>
       </c>
-      <c r="H2" s="3">
+      <c r="K2" s="5">
         <v>5200</v>
       </c>
-      <c r="I2" s="3">
+      <c r="L2" s="5">
         <v>1000</v>
       </c>
-      <c r="J2" s="3">
+      <c r="M2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2">
         <v>5000</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2400</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -607,37 +716,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="A3:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="b">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -649,66 +758,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="D2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="b">
+      <c r="D2" s="2" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -719,66 +802,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="b">
+      <c r="D2" s="2" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -789,10 +846,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -812,43 +869,17 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="b">
+      <c r="D2" s="2" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -869,16 +900,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/Expr2d/Expr_2.xlsx
+++ b/Expr2d/Expr_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C9B0E8-F023-B64D-B303-148C00F8CC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60769A45-B8EC-CF44-829D-FF580D364580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="1340" windowWidth="28800" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8080" yWindow="1340" windowWidth="28800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -36,24 +36,78 @@
     <t>SEED</t>
   </si>
   <si>
+    <t>PDE_Solver</t>
+  </si>
+  <si>
     <t>Save_Path</t>
   </si>
   <si>
+    <t>Train_Dataset</t>
+  </si>
+  <si>
+    <t>Valid_Dataset</t>
+  </si>
+  <si>
+    <t>Test_Dataset</t>
+  </si>
+  <si>
     <t>Batch_size</t>
   </si>
   <si>
+    <t>Mu</t>
+  </si>
+  <si>
     <t>Epoch</t>
   </si>
   <si>
+    <t>Penalty</t>
+  </si>
+  <si>
     <t>Sub_number</t>
   </si>
   <si>
     <t>Scale_Coeff</t>
   </si>
   <si>
+    <t>Sum_Samples</t>
+  </si>
+  <si>
+    <t>Boundary</t>
+  </si>
+  <si>
+    <t>Domain_Numbers</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Con_record</t>
+  </si>
+  <si>
     <t>mscalenn2</t>
   </si>
   <si>
+    <t>src_lam/possion_domain.py</t>
+  </si>
+  <si>
+    <t>Result/Expr2_2</t>
+  </si>
+  <si>
+    <t>data/possion_2d/holes/train_loader.pt</t>
+  </si>
+  <si>
+    <t>data/possion_2d/holes/val_loader.pt</t>
+  </si>
+  <si>
+    <t>data/possion_2d/holes/test_loader.pt</t>
+  </si>
+  <si>
+    <t>1100,550,550,400</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
     <t>Layer_Set</t>
   </si>
   <si>
@@ -66,6 +120,12 @@
     <t>Residual</t>
   </si>
   <si>
+    <t>2,200,200,200,1</t>
+  </si>
+  <si>
+    <t>phi,phi,phi</t>
+  </si>
+  <si>
     <t>xavier_uniform</t>
   </si>
   <si>
@@ -81,71 +141,12 @@
     <t>test_loss</t>
   </si>
   <si>
-    <t>PDE_Solver</t>
-  </si>
-  <si>
-    <t>Mu</t>
-  </si>
-  <si>
-    <t>Penalty</t>
-  </si>
-  <si>
-    <t>Sum_Samples</t>
-  </si>
-  <si>
-    <t>src_lam/possion_domain.py</t>
-  </si>
-  <si>
-    <t>2,200,200,200,1</t>
-  </si>
-  <si>
-    <t>phi,phi,phi</t>
-  </si>
-  <si>
-    <t>Result/Expr2_2</t>
+    <t>1,2,4,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Train_Dataset</t>
-  </si>
-  <si>
-    <t>Valid_Dataset</t>
-  </si>
-  <si>
-    <t>Test_Dataset</t>
-  </si>
-  <si>
-    <t>Boundary</t>
-  </si>
-  <si>
-    <t>Domain_Numbers</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Con_record</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/train_loader.pt</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/val_loader.pt</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/test_loader.pt</t>
-  </si>
-  <si>
-    <t>1,2,4,8,16</t>
-  </si>
-  <si>
-    <t>1100,550,550,400</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>0,2000,5000</t>
+    <t>0,5000,10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -172,13 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -198,6 +192,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -244,26 +245,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -582,127 +583,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10100</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2400</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5">
-        <v>5200</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="2">
-        <v>5000</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>2400</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -723,30 +724,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -767,30 +768,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -811,30 +812,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -855,30 +856,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -890,30 +891,56 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D95"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>118.3548049926758</v>
+      </c>
+      <c r="C2">
+        <v>0.2384821094572544</v>
+      </c>
+      <c r="D2">
+        <v>0.2396102070808411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>49.060062408447273</v>
+      </c>
+      <c r="C3">
+        <v>0.16046763360500341</v>
+      </c>
+      <c r="D3">
+        <v>0.16117217242717741</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Expr2d/Expr_2.xlsx
+++ b/Expr2d/Expr_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60769A45-B8EC-CF44-829D-FF580D364580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F7C240-E69A-8346-AFAB-98A07D91EE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8080" yWindow="1340" windowWidth="28800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Model</t>
   </si>
@@ -145,18 +145,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Fig_Record_Interve</t>
+  </si>
+  <si>
     <t>0,5000,10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,14 +177,6 @@
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -233,15 +224,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -251,7 +239,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -260,16 +248,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,8 +631,11 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -703,8 +690,11 @@
       <c r="R2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>39</v>
+      <c r="S2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -898,16 +888,16 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Expr2d/Expr_2.xlsx
+++ b/Expr2d/Expr_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F7C240-E69A-8346-AFAB-98A07D91EE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A233D0FC-91F8-5140-8C3D-B4F122C49644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8080" yWindow="1340" windowWidth="28800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,8 @@
     <t>Fig_Record_Interve</t>
   </si>
   <si>
-    <t>0,5000,10000</t>
+    <t>0,15000,30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -568,7 +569,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -667,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="4">
-        <v>10100</v>
+        <v>30100</v>
       </c>
       <c r="L2" s="4">
         <v>1000</v>
